--- a/Offline/BusinessManagement/Ops_Backup/Ops-2023-11.xlsx
+++ b/Offline/BusinessManagement/Ops_Backup/Ops-2023-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\TeachingOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops_Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBE6733-5666-40D3-A49F-C04E759262B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89ECCC6-CDD8-4A9D-A073-598C1EECB71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="7" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
   <si>
     <t>Course</t>
   </si>
@@ -442,6 +442,21 @@
   </si>
   <si>
     <t>Quality Assessment gets hit</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Long Term</t>
+  </si>
+  <si>
+    <t>Redox</t>
+  </si>
+  <si>
+    <t>Faraday's Law</t>
+  </si>
+  <si>
+    <t>Elecrto Chemical Cell</t>
   </si>
 </sst>
 </file>
@@ -2671,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6DCCC-E30E-4525-A65D-DF43CA79E3C2}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2745,6 +2760,9 @@
       <c r="H2" t="s">
         <v>47</v>
       </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
       <c r="J2" t="s">
         <v>75</v>
       </c>
@@ -2774,6 +2792,9 @@
       <c r="H3" t="s">
         <v>47</v>
       </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
       <c r="J3" t="s">
         <v>75</v>
       </c>
@@ -2789,7 +2810,7 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E4" s="56">
         <v>45239</v>
@@ -2821,7 +2842,7 @@
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E5" s="56">
         <v>45239</v>
@@ -2849,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B9C15-B318-4180-B0D5-96F2E895A4B6}">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3024,9 +3045,21 @@
       <c r="D12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3043,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3216,9 +3249,21 @@
       <c r="D12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3237,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
